--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2533,7 +2533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4512,7 +4512,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6491,7 +6491,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>16769</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10556</v>
+        <v>10314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26655</v>
+        <v>25688</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0339407204176875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02136621048703216</v>
+        <v>0.02087593298707437</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05394953184217198</v>
+        <v>0.0519936864864894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>17756</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10535</v>
+        <v>11141</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28757</v>
+        <v>27316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03798235520320972</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02253451731230501</v>
+        <v>0.02383131575785378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06151269576832306</v>
+        <v>0.0584313789405024</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -786,19 +786,19 @@
         <v>34525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24690</v>
+        <v>24704</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47454</v>
+        <v>46234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03590568777379792</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02567711364761651</v>
+        <v>0.02569226431312602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0493514232676488</v>
+        <v>0.04808273870140688</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>477295</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>467409</v>
+        <v>468376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>483508</v>
+        <v>483750</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9660592795823125</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.946050468157828</v>
+        <v>0.9480063135135107</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9786337895129678</v>
+        <v>0.9791240670129256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -836,19 +836,19 @@
         <v>449733</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>438732</v>
+        <v>440173</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>456954</v>
+        <v>456348</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9620176447967903</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9384873042316767</v>
+        <v>0.9415686210594976</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9774654826876947</v>
+        <v>0.9761686842421462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>951</v>
@@ -857,19 +857,19 @@
         <v>927028</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>914099</v>
+        <v>915319</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>936863</v>
+        <v>936849</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9640943122262021</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9506485767323511</v>
+        <v>0.9519172612985931</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9743228863523835</v>
+        <v>0.974307735686874</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>18558</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10777</v>
+        <v>11239</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29635</v>
+        <v>29179</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02523265296270256</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0146534288776844</v>
+        <v>0.01528107173408805</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04029297580499426</v>
+        <v>0.03967352681795117</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -982,19 +982,19 @@
         <v>26322</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17271</v>
+        <v>17587</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38338</v>
+        <v>40394</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04208160130452115</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02761214117103825</v>
+        <v>0.02811723318404297</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06129216275225868</v>
+        <v>0.06457892122516737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -1003,19 +1003,19 @@
         <v>44880</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32216</v>
+        <v>33464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60656</v>
+        <v>61811</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03297625994825845</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02367118717154255</v>
+        <v>0.02458790628999302</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04456808122177779</v>
+        <v>0.04541673578492025</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>716931</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>705854</v>
+        <v>706310</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>724712</v>
+        <v>724250</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9747673470372974</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9597070241950059</v>
+        <v>0.9603264731820491</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9853465711223156</v>
+        <v>0.984718928265912</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>567</v>
@@ -1053,19 +1053,19 @@
         <v>599172</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>587156</v>
+        <v>585100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>608223</v>
+        <v>607907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9579183986954789</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9387078372477415</v>
+        <v>0.9354210787748327</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9723878588289617</v>
+        <v>0.9718827668159571</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1253</v>
@@ -1074,19 +1074,19 @@
         <v>1316102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1300326</v>
+        <v>1299171</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1328766</v>
+        <v>1327518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9670237400517415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9554319187782229</v>
+        <v>0.9545832642150789</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763288128284575</v>
+        <v>0.9754120937100064</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>11973</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6456</v>
+        <v>6630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20484</v>
+        <v>20548</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01877609757576126</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01012470509330378</v>
+        <v>0.01039737364989981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03212450015034674</v>
+        <v>0.03222446799235883</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1199,19 +1199,19 @@
         <v>28388</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19135</v>
+        <v>18935</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40241</v>
+        <v>41090</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04115768828768851</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02774220542985413</v>
+        <v>0.02745218819804373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05834189766715095</v>
+        <v>0.05957310227898281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -1220,19 +1220,19 @@
         <v>40361</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28235</v>
+        <v>28215</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54425</v>
+        <v>54377</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03040608645570291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02127071450184685</v>
+        <v>0.02125610316494757</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04100152372113577</v>
+        <v>0.04096515053948969</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>625676</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>617165</v>
+        <v>617101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>631193</v>
+        <v>631019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9812239024242387</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.967875499849653</v>
+        <v>0.967775532007641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898752949066961</v>
+        <v>0.9896026263501002</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>631</v>
@@ -1270,19 +1270,19 @@
         <v>661356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>649503</v>
+        <v>648654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>670609</v>
+        <v>670809</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9588423117123115</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9416581023328492</v>
+        <v>0.9404268977210171</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9722577945701459</v>
+        <v>0.9725478118019563</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1231</v>
@@ -1291,19 +1291,19 @@
         <v>1287033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1272969</v>
+        <v>1273017</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1299159</v>
+        <v>1299179</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9695939135442971</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9589984762788644</v>
+        <v>0.9590348494605103</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9787292854981532</v>
+        <v>0.9787438968350525</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>10836</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4918</v>
+        <v>4616</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20960</v>
+        <v>21830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02087318647238682</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009473676818517176</v>
+        <v>0.008890699356346976</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04037390015990264</v>
+        <v>0.04204901761039415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -1416,19 +1416,19 @@
         <v>16027</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9645</v>
+        <v>9695</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>25571</v>
+        <v>25513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03108254238539863</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01870517916837686</v>
+        <v>0.01880141322281498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04959065101275717</v>
+        <v>0.04947864094154533</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -1437,19 +1437,19 @@
         <v>26864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17261</v>
+        <v>17800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38788</v>
+        <v>40910</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02596057378794569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01668100984707626</v>
+        <v>0.01720148577366721</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03748406923789643</v>
+        <v>0.03953459761992806</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>508311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>498187</v>
+        <v>497317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>514229</v>
+        <v>514531</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9791268135276132</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9596260998400974</v>
+        <v>0.9579509823896057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9905263231814828</v>
+        <v>0.9911093006436528</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>486</v>
@@ -1487,19 +1487,19 @@
         <v>499615</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>490071</v>
+        <v>490129</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>505997</v>
+        <v>505947</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9689174576146014</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9504093489872428</v>
+        <v>0.9505213590584545</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9812948208316231</v>
+        <v>0.981198586777185</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>962</v>
@@ -1508,19 +1508,19 @@
         <v>1007925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>996001</v>
+        <v>993879</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1017528</v>
+        <v>1016989</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9740394262120543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9625159307621036</v>
+        <v>0.9604654023800719</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9833189901529238</v>
+        <v>0.9827985142263329</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>9971</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4970</v>
+        <v>5012</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19196</v>
+        <v>18574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02578546729357428</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0128507794633367</v>
+        <v>0.01295933927656154</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04963817631794237</v>
+        <v>0.04802973904522755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -1633,19 +1633,19 @@
         <v>20252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12382</v>
+        <v>12293</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31143</v>
+        <v>30754</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05013074697657003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03064869994822905</v>
+        <v>0.03042885073223526</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07708937451599275</v>
+        <v>0.076127633534603</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -1654,19 +1654,19 @@
         <v>30224</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20795</v>
+        <v>19856</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>44604</v>
+        <v>42883</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0382240675523239</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02630001666436504</v>
+        <v>0.02511204853183993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05641049974705543</v>
+        <v>0.05423436049949608</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>376739</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>367514</v>
+        <v>368136</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>381740</v>
+        <v>381698</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9742145327064258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9503618236820569</v>
+        <v>0.9519702609547724</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9871492205366633</v>
+        <v>0.9870406607234384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -1704,19 +1704,19 @@
         <v>383734</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>372843</v>
+        <v>373232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>391604</v>
+        <v>391693</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9498692530234299</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9229106254840075</v>
+        <v>0.9238723664653971</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9693513000517711</v>
+        <v>0.9695711492677649</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>760</v>
@@ -1725,19 +1725,19 @@
         <v>760472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>746092</v>
+        <v>747813</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>769901</v>
+        <v>770840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9617759324476761</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9435895002529445</v>
+        <v>0.9457656395005041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9736999833356349</v>
+        <v>0.9748879514681604</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>5104</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1858</v>
+        <v>1426</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11924</v>
+        <v>11174</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01744360591621063</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006350361537553317</v>
+        <v>0.00487396910168003</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04075325907265027</v>
+        <v>0.03819100846630114</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1850,19 +1850,19 @@
         <v>15774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9600</v>
+        <v>9756</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24678</v>
+        <v>26015</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04599782892614323</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02799448347560415</v>
+        <v>0.02844958131872008</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07196246007134445</v>
+        <v>0.07585896944272731</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>22</v>
@@ -1871,19 +1871,19 @@
         <v>20878</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13490</v>
+        <v>13114</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31667</v>
+        <v>30878</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03285187020714756</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02122649378816638</v>
+        <v>0.02063586228635484</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04982813924180206</v>
+        <v>0.04858684841507058</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>287479</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>280659</v>
+        <v>281409</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>290725</v>
+        <v>291157</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9825563940837894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9592467409273496</v>
+        <v>0.9618089915336984</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9936496384624467</v>
+        <v>0.9951260308983199</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>354</v>
@@ -1921,19 +1921,19 @@
         <v>327160</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>318256</v>
+        <v>316919</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>333334</v>
+        <v>333178</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9540021710738568</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9280375399286556</v>
+        <v>0.9241410305572728</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9720055165243957</v>
+        <v>0.9715504186812799</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>652</v>
@@ -1942,19 +1942,19 @@
         <v>614639</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>603850</v>
+        <v>604639</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>622027</v>
+        <v>622403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9671481297928525</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9501718607581978</v>
+        <v>0.9514131515849295</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9787735062118335</v>
+        <v>0.9793641377136452</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>5002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1736</v>
+        <v>1711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12056</v>
+        <v>10603</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02383018474435274</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008270616394309181</v>
+        <v>0.008150052328823792</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05744319073450155</v>
+        <v>0.05051952069487645</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2067,19 +2067,19 @@
         <v>7756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3263</v>
+        <v>3269</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16619</v>
+        <v>15734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02322894506387999</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009771824002651702</v>
+        <v>0.009791066252934567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04977059894349854</v>
+        <v>0.0471206577967448</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -2088,19 +2088,19 @@
         <v>12758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6788</v>
+        <v>5796</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>22519</v>
+        <v>21718</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02346100111509204</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01248253772061045</v>
+        <v>0.01065852970783201</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04141149642010061</v>
+        <v>0.03993808321655541</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>204881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>197827</v>
+        <v>199280</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208147</v>
+        <v>208172</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9761698152556473</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9425568092654985</v>
+        <v>0.9494804793051236</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9917293836056909</v>
+        <v>0.9918499476711763</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>284</v>
@@ -2138,19 +2138,19 @@
         <v>326152</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317289</v>
+        <v>318174</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>330645</v>
+        <v>330639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.97677105493612</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9502294010565014</v>
+        <v>0.9528793422032548</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9902281759973481</v>
+        <v>0.9902089337470654</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>499</v>
@@ -2159,19 +2159,19 @@
         <v>531033</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>521272</v>
+        <v>522073</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>537003</v>
+        <v>537995</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9765389988849079</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9585885035798992</v>
+        <v>0.9600619167834445</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9875174622793895</v>
+        <v>0.9893414702921679</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>78213</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02387793940796142</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>128</v>
@@ -2284,19 +2284,19 @@
         <v>132277</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0391443658550934</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>202</v>
@@ -2305,19 +2305,19 @@
         <v>210489</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03163006843644426</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3197312</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3174490</v>
+        <v>3174712</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3212473</v>
+        <v>3213108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9761220605920385</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9691546833984983</v>
+        <v>0.9692224331663674</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9807504360174885</v>
+        <v>0.9809445794181533</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3169</v>
@@ -2355,19 +2355,19 @@
         <v>3246920</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3221982</v>
+        <v>3223780</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3268224</v>
+        <v>3268143</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9608556341449066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9534755472131013</v>
+        <v>0.9540077509036172</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.967160056354909</v>
+        <v>0.9671359893632057</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6308</v>
@@ -2376,19 +2376,19 @@
         <v>6444233</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6413691</v>
+        <v>6411865</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6471523</v>
+        <v>6472471</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9683699315635558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9637805010258395</v>
+        <v>0.9635060988440276</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9724708676175008</v>
+        <v>0.972613335051924</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>18367</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11660</v>
+        <v>11479</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29957</v>
+        <v>28470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04053619493577372</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02573263859642395</v>
+        <v>0.02533425945670105</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06611457237506953</v>
+        <v>0.06283334356587322</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -2744,19 +2744,19 @@
         <v>27039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18891</v>
+        <v>18383</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38687</v>
+        <v>38655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06297764439687131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04399988107790776</v>
+        <v>0.0428168117724392</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09010937187467884</v>
+        <v>0.09003402716923105</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2765,19 +2765,19 @@
         <v>45406</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32923</v>
+        <v>33467</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59576</v>
+        <v>60316</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0514547222644403</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03730911606606851</v>
+        <v>0.03792581040802694</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06751188713054969</v>
+        <v>0.06835090312867056</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>434738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>423148</v>
+        <v>424635</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>441445</v>
+        <v>441626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9594638050642262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9338854276249303</v>
+        <v>0.9371666564341268</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9742673614035761</v>
+        <v>0.9746657405432989</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>393</v>
@@ -2815,19 +2815,19 @@
         <v>402300</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>390652</v>
+        <v>390684</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>410448</v>
+        <v>410956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9370223556031286</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9098906281253213</v>
+        <v>0.9099659728307693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9560001189220922</v>
+        <v>0.9571831882275612</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>820</v>
@@ -2836,19 +2836,19 @@
         <v>837039</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>822869</v>
+        <v>822129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>849522</v>
+        <v>848978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9485452777355597</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9324881128694503</v>
+        <v>0.9316490968713295</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9626908839339317</v>
+        <v>0.9620741895919731</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>27125</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17981</v>
+        <v>18181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40200</v>
+        <v>40515</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03952697135530101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02620204814449018</v>
+        <v>0.0264931777692916</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0585805537542966</v>
+        <v>0.05903958305447526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2961,19 +2961,19 @@
         <v>37747</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26942</v>
+        <v>25929</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52161</v>
+        <v>52213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06196017934571651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04422401696287</v>
+        <v>0.04256208417746639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08562009114285384</v>
+        <v>0.08570583033787693</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -2982,19 +2982,19 @@
         <v>64872</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49953</v>
+        <v>51208</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84359</v>
+        <v>81706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05007666708819891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03856026792896106</v>
+        <v>0.03952927083352204</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06511951193194281</v>
+        <v>0.06307131707246766</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>659113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>646038</v>
+        <v>645723</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>668257</v>
+        <v>668057</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.960473028644699</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9414194462457037</v>
+        <v>0.940960416945525</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.97379795185551</v>
+        <v>0.9735068222307085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>535</v>
@@ -3032,19 +3032,19 @@
         <v>571467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>557053</v>
+        <v>557001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>582272</v>
+        <v>583285</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9380398206542835</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9143799088571462</v>
+        <v>0.9142941696621231</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9557759830371301</v>
+        <v>0.9574379158225336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1176</v>
@@ -3053,19 +3053,19 @@
         <v>1230579</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1211092</v>
+        <v>1213745</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1245498</v>
+        <v>1244243</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9499233329118011</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9348804880680572</v>
+        <v>0.9369286829275323</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9614397320710391</v>
+        <v>0.960470729166478</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>26630</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16831</v>
+        <v>16771</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38925</v>
+        <v>38525</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03915805140247412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02474948226238931</v>
+        <v>0.02466151766487933</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05723881467622224</v>
+        <v>0.05665015332472072</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -3178,19 +3178,19 @@
         <v>52868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38884</v>
+        <v>39271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67506</v>
+        <v>69075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07489104582984035</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05508105794897309</v>
+        <v>0.05562962144060404</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0956262082707698</v>
+        <v>0.09784853544142884</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>74</v>
@@ -3199,19 +3199,19 @@
         <v>79498</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>63415</v>
+        <v>63607</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101005</v>
+        <v>97952</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05735818257518881</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04575452915342685</v>
+        <v>0.04589289622212069</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0728757586318943</v>
+        <v>0.07067270490001527</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>653424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641129</v>
+        <v>641529</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>663223</v>
+        <v>663283</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9608419485975259</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9427611853237777</v>
+        <v>0.9433498466752793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9752505177376107</v>
+        <v>0.9753384823351205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>613</v>
@@ -3249,19 +3249,19 @@
         <v>653067</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638429</v>
+        <v>636860</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>667051</v>
+        <v>666664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9251089541701597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9043737917292302</v>
+        <v>0.9021514645585711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9449189420510269</v>
+        <v>0.9443703785593959</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1238</v>
@@ -3270,19 +3270,19 @@
         <v>1306491</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1284984</v>
+        <v>1288037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1322574</v>
+        <v>1322382</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9426418174248112</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9271242413681056</v>
+        <v>0.9293272950999848</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9542454708465732</v>
+        <v>0.95410710377788</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>13883</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6567</v>
+        <v>7567</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25515</v>
+        <v>25531</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02258824406155825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01068522914133637</v>
+        <v>0.01231172364923598</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04151367938101071</v>
+        <v>0.04154018742662981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -3395,19 +3395,19 @@
         <v>34147</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22792</v>
+        <v>23585</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47575</v>
+        <v>49467</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05560791631949642</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03711613783135358</v>
+        <v>0.03840707681789967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07747517554642523</v>
+        <v>0.08055608403217759</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3416,19 +3416,19 @@
         <v>48030</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33978</v>
+        <v>34894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65096</v>
+        <v>65204</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03909076882774806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02765404624934301</v>
+        <v>0.02839923910903714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05297973133657434</v>
+        <v>0.05306770901570705</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>600734</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>589102</v>
+        <v>589086</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>608050</v>
+        <v>607050</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9774117559384418</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9584863206189893</v>
+        <v>0.9584598125733702</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9893147708586637</v>
+        <v>0.9876882763507639</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -3466,19 +3466,19 @@
         <v>579925</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>566497</v>
+        <v>564605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>591280</v>
+        <v>590487</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9443920836805035</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9225248244535749</v>
+        <v>0.9194439159678226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9628838621686465</v>
+        <v>0.9615929231821004</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1045</v>
@@ -3487,19 +3487,19 @@
         <v>1180659</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1163593</v>
+        <v>1163485</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1194711</v>
+        <v>1193795</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9609092311722519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9470202686634258</v>
+        <v>0.946932290984293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.972345953750657</v>
+        <v>0.9716007608909629</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>8475</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4102</v>
+        <v>4157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16159</v>
+        <v>15842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01978647343990046</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009575868907111011</v>
+        <v>0.009704533470799279</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03772360138889611</v>
+        <v>0.03698415418113611</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -3612,19 +3612,19 @@
         <v>14375</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8117</v>
+        <v>8461</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24865</v>
+        <v>24445</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03210096258125313</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01812589143041177</v>
+        <v>0.01889401800864041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05552697946617173</v>
+        <v>0.054590190115205</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>22</v>
@@ -3633,19 +3633,19 @@
         <v>22850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14956</v>
+        <v>15294</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33351</v>
+        <v>34143</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02608045067156344</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01707040673179303</v>
+        <v>0.01745655978842226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0380654757620278</v>
+        <v>0.03896914294437893</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>419869</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>412185</v>
+        <v>412502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>424242</v>
+        <v>424187</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9802135265600995</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.962276398611104</v>
+        <v>0.9630158458188639</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9904241310928891</v>
+        <v>0.9902954665292008</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>392</v>
@@ -3683,19 +3683,19 @@
         <v>433425</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>422935</v>
+        <v>423355</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>439683</v>
+        <v>439339</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9678990374187468</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9444730205338286</v>
+        <v>0.9454098098847951</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9818741085695882</v>
+        <v>0.9811059819913597</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>776</v>
@@ -3704,19 +3704,19 @@
         <v>853294</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>842793</v>
+        <v>842001</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>861188</v>
+        <v>860850</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9739195493284366</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9619345242379722</v>
+        <v>0.9610308570556212</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9829295932682069</v>
+        <v>0.9825434402115778</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>12408</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6219</v>
+        <v>6954</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22414</v>
+        <v>21731</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04031309082869403</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0202055354824503</v>
+        <v>0.0225919534517903</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0728207113428419</v>
+        <v>0.07060312664311727</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -3829,19 +3829,19 @@
         <v>14848</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9053</v>
+        <v>8627</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23732</v>
+        <v>23801</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0420552772926825</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02564265539698223</v>
+        <v>0.02443581622285825</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0672176115193196</v>
+        <v>0.0674137446668257</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -3850,19 +3850,19 @@
         <v>27256</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17987</v>
+        <v>18421</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39482</v>
+        <v>39345</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04124384824732914</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02721755511430974</v>
+        <v>0.0278752436011269</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05974361423181157</v>
+        <v>0.05953638593831947</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>295387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>285381</v>
+        <v>286064</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>301576</v>
+        <v>300841</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9596869091713059</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9271792886571594</v>
+        <v>0.9293968733568827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9797944645175497</v>
+        <v>0.9774080465482097</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>328</v>
@@ -3900,19 +3900,19 @@
         <v>338211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>329327</v>
+        <v>329258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>344006</v>
+        <v>344432</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9579447227073175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9327823884806803</v>
+        <v>0.9325862553331741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9743573446030176</v>
+        <v>0.9755641837771416</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>598</v>
@@ -3921,19 +3921,19 @@
         <v>633598</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>621372</v>
+        <v>621509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>642867</v>
+        <v>642433</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9587561517526708</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9402563857681885</v>
+        <v>0.9404636140616804</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9727824448856903</v>
+        <v>0.9721247563988729</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>9721</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4348</v>
+        <v>4185</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18691</v>
+        <v>18178</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03903536442432744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01746067353271477</v>
+        <v>0.01680526829174278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07505435273300524</v>
+        <v>0.07299164132617698</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4046,19 +4046,19 @@
         <v>14182</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7718</v>
+        <v>8608</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23039</v>
+        <v>23219</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0367720973493439</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02001301921130089</v>
+        <v>0.02232105143444507</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05973950910341579</v>
+        <v>0.06020619430730473</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -4067,19 +4067,19 @@
         <v>23903</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15453</v>
+        <v>15976</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36192</v>
+        <v>35209</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03766012858740055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02434622100909103</v>
+        <v>0.02517030226395644</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05702246272247682</v>
+        <v>0.0554730948934565</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>239315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>230345</v>
+        <v>230858</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>244688</v>
+        <v>244851</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9609646355756726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.924945647266995</v>
+        <v>0.9270083586738231</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9825393264672853</v>
+        <v>0.9831947317082572</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>334</v>
@@ -4117,19 +4117,19 @@
         <v>371484</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>362627</v>
+        <v>362447</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>377948</v>
+        <v>377058</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9632279026506561</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9402604908965844</v>
+        <v>0.9397938056926955</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9799869807886992</v>
+        <v>0.9776789485655549</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>547</v>
@@ -4138,19 +4138,19 @@
         <v>610799</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>598510</v>
+        <v>599493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>619249</v>
+        <v>618726</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9623398714125995</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9429775372775232</v>
+        <v>0.9445269051065436</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.975653778990909</v>
+        <v>0.9748296977360436</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>116610</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03410445433262534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>183</v>
@@ -4263,19 +4263,19 @@
         <v>195206</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05506378664379125</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>288</v>
@@ -4284,19 +4284,19 @@
         <v>311815</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04477356819643205</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3302578</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3278251</v>
+        <v>3277804</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3322979</v>
+        <v>3324074</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9658955456673747</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9587805162644606</v>
+        <v>0.958649932071749</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9718620067024211</v>
+        <v>0.9721822257880093</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3103</v>
@@ -4334,19 +4334,19 @@
         <v>3349880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3321771</v>
+        <v>3320451</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3377034</v>
+        <v>3376726</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9449362133562087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9370071443910881</v>
+        <v>0.9366347757100758</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9525957877988139</v>
+        <v>0.9525088735605829</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6200</v>
@@ -4355,19 +4355,19 @@
         <v>6652459</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6609355</v>
+        <v>6611955</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6684725</v>
+        <v>6684598</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9552264318035679</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9490371628187135</v>
+        <v>0.9494105026347889</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9598596281642795</v>
+        <v>0.959841318652998</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>17202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10339</v>
+        <v>10378</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26481</v>
+        <v>26954</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0410097967563444</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02464749439678989</v>
+        <v>0.02474050496837926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06313015264948367</v>
+        <v>0.06425943843053679</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -4723,19 +4723,19 @@
         <v>21831</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13551</v>
+        <v>14370</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31783</v>
+        <v>31623</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05516391740360092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03424007379280868</v>
+        <v>0.03631029231172365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08030860049926349</v>
+        <v>0.07990577722084585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -4744,19 +4744,19 @@
         <v>39033</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28141</v>
+        <v>28939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51038</v>
+        <v>53496</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04788104352538141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03451927208465566</v>
+        <v>0.03549802381104391</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06260687206692944</v>
+        <v>0.06562191058812367</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>402261</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>392982</v>
+        <v>392509</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>409124</v>
+        <v>409085</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9589902032436556</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.936869847350516</v>
+        <v>0.9357405615694632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9753525056032099</v>
+        <v>0.9752594950316207</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>382</v>
@@ -4794,19 +4794,19 @@
         <v>373924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>363972</v>
+        <v>364132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>382204</v>
+        <v>381385</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9448360825963991</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9196913995007365</v>
+        <v>0.9200942227791541</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9657599262071913</v>
+        <v>0.9636897076882764</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -4815,19 +4815,19 @@
         <v>776185</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>764180</v>
+        <v>761722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>787077</v>
+        <v>786279</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9521189564746186</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9373931279330706</v>
+        <v>0.9343780894118764</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9654807279153443</v>
+        <v>0.9645019761889561</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>21319</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13424</v>
+        <v>13359</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31708</v>
+        <v>30574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0361032401729149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02273260816615879</v>
+        <v>0.02262251105503251</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0536975562907756</v>
+        <v>0.05177720612377468</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -4940,19 +4940,19 @@
         <v>34646</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23904</v>
+        <v>24383</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47644</v>
+        <v>47080</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06147944923126695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04241644707765235</v>
+        <v>0.04326746947789598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08454342598340844</v>
+        <v>0.08354227983996425</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4961,19 +4961,19 @@
         <v>55965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41339</v>
+        <v>43142</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72418</v>
+        <v>72628</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04849501429150361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03582079519139634</v>
+        <v>0.03738341694814791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06275153036600224</v>
+        <v>0.06293365883110105</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>569177</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>558788</v>
+        <v>559922</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>577072</v>
+        <v>577137</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9638967598270851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9463024437092238</v>
+        <v>0.9482227938762252</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9772673918338411</v>
+        <v>0.977377488944967</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>545</v>
@@ -5011,19 +5011,19 @@
         <v>528898</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>515900</v>
+        <v>516464</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>539640</v>
+        <v>539161</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9385205507687331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9154565740165915</v>
+        <v>0.9164577201600357</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9575835529223476</v>
+        <v>0.9567325305221042</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1090</v>
@@ -5032,19 +5032,19 @@
         <v>1098075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1081622</v>
+        <v>1081412</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1112701</v>
+        <v>1110898</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9515049857084964</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9372484696339978</v>
+        <v>0.937066341168899</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9641792048086036</v>
+        <v>0.962616583051852</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>20877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12657</v>
+        <v>13002</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32339</v>
+        <v>32936</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0312011562873351</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01891655861671986</v>
+        <v>0.01943195425008924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04833155840978474</v>
+        <v>0.04922497513816796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -5157,19 +5157,19 @@
         <v>45791</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34990</v>
+        <v>33665</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61088</v>
+        <v>59994</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06923536716754687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05290417735929785</v>
+        <v>0.05090108013620816</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09236338798176201</v>
+        <v>0.09070910162044636</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -5178,19 +5178,19 @@
         <v>66668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>51540</v>
+        <v>53140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84309</v>
+        <v>85645</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05010805385295761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03873802871031345</v>
+        <v>0.03994011117963508</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06336694610039374</v>
+        <v>0.06437110909558932</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>648220</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>636758</v>
+        <v>636161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>656440</v>
+        <v>656095</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9687988437126649</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9516684415902152</v>
+        <v>0.9507750248618322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9810834413832802</v>
+        <v>0.9805680457499109</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>620</v>
@@ -5228,19 +5228,19 @@
         <v>615595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>600298</v>
+        <v>601392</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>626396</v>
+        <v>627721</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9307646328324531</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9076366120182381</v>
+        <v>0.9092908983795536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9470958226407022</v>
+        <v>0.9490989198637918</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1240</v>
@@ -5249,19 +5249,19 @@
         <v>1263815</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1246174</v>
+        <v>1244838</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1278943</v>
+        <v>1277343</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9498919461470424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9366330538996063</v>
+        <v>0.9356288909044106</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9612619712896865</v>
+        <v>0.9600598888203647</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>12618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6750</v>
+        <v>5951</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21830</v>
+        <v>20659</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01953123117506157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01044838488679216</v>
+        <v>0.009211107393929045</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03378962549304144</v>
+        <v>0.03197680212491273</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -5374,19 +5374,19 @@
         <v>33919</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>22590</v>
+        <v>23997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46168</v>
+        <v>49230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0522573501736887</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03480324809735989</v>
+        <v>0.03697094166196579</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07112913276065785</v>
+        <v>0.07584635175249337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -5395,19 +5395,19 @@
         <v>46537</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34363</v>
+        <v>32949</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>62997</v>
+        <v>62998</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03593255556864472</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02653237991915115</v>
+        <v>0.02544098680898736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04864200874820743</v>
+        <v>0.04864210874879207</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>633430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>624218</v>
+        <v>625389</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>639298</v>
+        <v>640097</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9804687688249384</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9662103745069585</v>
+        <v>0.9680231978750873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895516151132079</v>
+        <v>0.9907888926060707</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>572</v>
@@ -5445,19 +5445,19 @@
         <v>615158</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>602909</v>
+        <v>599847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>626487</v>
+        <v>625080</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9477426498263113</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9288708672393416</v>
+        <v>0.9241536482475066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9651967519026395</v>
+        <v>0.9630290583380342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1143</v>
@@ -5466,19 +5466,19 @@
         <v>1248588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1232128</v>
+        <v>1232127</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260762</v>
+        <v>1262176</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9640674444313553</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9513579912517925</v>
+        <v>0.9513578912512077</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9734676200808489</v>
+        <v>0.9745590131910125</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>19160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11607</v>
+        <v>11744</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29459</v>
+        <v>30582</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04009136682383867</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02428565638374104</v>
+        <v>0.02457221016684872</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06163928251738858</v>
+        <v>0.06399018945682215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -5591,19 +5591,19 @@
         <v>26178</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16789</v>
+        <v>16717</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39267</v>
+        <v>38037</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05268813737907298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03379097631131607</v>
+        <v>0.03364631859650737</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0790310817214001</v>
+        <v>0.07655564092867091</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -5612,19 +5612,19 @@
         <v>45338</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31484</v>
+        <v>32942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>60953</v>
+        <v>60927</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04651207338445803</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0322989431232253</v>
+        <v>0.03379476969403986</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06253115518707758</v>
+        <v>0.06250428284264778</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>458758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>448459</v>
+        <v>447336</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>466311</v>
+        <v>466174</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9599086331761614</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9383607174826115</v>
+        <v>0.9360098105431782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.975714343616259</v>
+        <v>0.9754277898331514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>411</v>
@@ -5662,19 +5662,19 @@
         <v>470671</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457582</v>
+        <v>458812</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>480060</v>
+        <v>480132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.947311862620927</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9209689182785998</v>
+        <v>0.9234443590713292</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9662090236886839</v>
+        <v>0.9663536814034925</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>818</v>
@@ -5683,19 +5683,19 @@
         <v>929429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>913814</v>
+        <v>913840</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>943283</v>
+        <v>941825</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9534879266155419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9374688448129224</v>
+        <v>0.9374957171573525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9677010568767747</v>
+        <v>0.9662052303059604</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>4773</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1874</v>
+        <v>1876</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10752</v>
+        <v>10558</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01427693071667788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005604045452336904</v>
+        <v>0.005611591388953853</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03215885714633789</v>
+        <v>0.03157945737657591</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -5808,19 +5808,19 @@
         <v>12380</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6887</v>
+        <v>6392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21778</v>
+        <v>21406</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03277326120635699</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0182307486600376</v>
+        <v>0.01691984408719452</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05765041238792243</v>
+        <v>0.0566646735391391</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>17</v>
@@ -5829,19 +5829,19 @@
         <v>17154</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10388</v>
+        <v>10129</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27205</v>
+        <v>27108</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02408916120150681</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01458804174138766</v>
+        <v>0.01422378271421004</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03820437401458802</v>
+        <v>0.03806784389828835</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>329557</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>323578</v>
+        <v>323772</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332456</v>
+        <v>332454</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9857230692833221</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9678411428536619</v>
+        <v>0.9684205426234239</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9943959545476631</v>
+        <v>0.9943884086110462</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>342</v>
@@ -5879,19 +5879,19 @@
         <v>365382</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>355984</v>
+        <v>356356</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>370875</v>
+        <v>371370</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.967226738793643</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9423495876120777</v>
+        <v>0.9433353264608607</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9817692513399625</v>
+        <v>0.9830801559128054</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>662</v>
@@ -5900,19 +5900,19 @@
         <v>694938</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>684887</v>
+        <v>684984</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>701704</v>
+        <v>701963</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9759108387984932</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.961795625985412</v>
+        <v>0.9619321561017126</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9854119582586124</v>
+        <v>0.98577621728579</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>8287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4218</v>
+        <v>4089</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15024</v>
+        <v>14818</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03224421791640346</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01641083858779504</v>
+        <v>0.01591197774336725</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05845790829010458</v>
+        <v>0.05765789308594483</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -6025,19 +6025,19 @@
         <v>15715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9063</v>
+        <v>9102</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26090</v>
+        <v>26208</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03927171325734829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02264899044692795</v>
+        <v>0.02274485081663124</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06519720386897029</v>
+        <v>0.06549312473691368</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -6046,19 +6046,19 @@
         <v>24002</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16017</v>
+        <v>16075</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35833</v>
+        <v>36782</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03652347383912688</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02437223169652605</v>
+        <v>0.02446161891988191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05452647820586187</v>
+        <v>0.05597079113582401</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>248711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>241974</v>
+        <v>242180</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>252780</v>
+        <v>252909</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9677557820835966</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9415420917098956</v>
+        <v>0.9423421069140552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.983589161412205</v>
+        <v>0.9840880222566327</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -6096,19 +6096,19 @@
         <v>384454</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>374079</v>
+        <v>373961</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>391106</v>
+        <v>391067</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9607282867426518</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9348027961310299</v>
+        <v>0.9345068752630864</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9773510095530721</v>
+        <v>0.9772551491833688</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>581</v>
@@ -6117,19 +6117,19 @@
         <v>633165</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>621334</v>
+        <v>620385</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>641150</v>
+        <v>641092</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9634765261608731</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9454735217941386</v>
+        <v>0.9440292088641761</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.975627768303474</v>
+        <v>0.9755383810801181</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>104236</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03070865222488643</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>177</v>
@@ -6242,19 +6242,19 @@
         <v>190462</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05373387652741457</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>277</v>
@@ -6263,19 +6263,19 @@
         <v>294698</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04247045375638014</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3290114</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3268539</v>
+        <v>3267596</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3310132</v>
+        <v>3309261</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9692913477751136</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9629351565895712</v>
+        <v>0.9626574921389064</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9751887546157111</v>
+        <v>0.9749320872553621</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3161</v>
@@ -6313,19 +6313,19 @@
         <v>3354080</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3323976</v>
+        <v>3326010</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3381782</v>
+        <v>3382188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9462661234725854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9377731709800685</v>
+        <v>0.9383469884615133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9540815241710161</v>
+        <v>0.954195916039648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6292</v>
@@ -6334,19 +6334,19 @@
         <v>6644194</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6604168</v>
+        <v>6608967</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6675128</v>
+        <v>6675699</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9575295462436199</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9517612231735644</v>
+        <v>0.952452722760453</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9619875569792768</v>
+        <v>0.9620698257501658</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>13689</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5064</v>
+        <v>5943</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26728</v>
+        <v>26875</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0335693491022764</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01241808171660392</v>
+        <v>0.0145729059410842</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06554250281798614</v>
+        <v>0.06590341150595042</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -6702,19 +6702,19 @@
         <v>14590</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6494</v>
+        <v>6636</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28075</v>
+        <v>28535</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04024793363188005</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01791480385485551</v>
+        <v>0.01830635955753996</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07744619427835196</v>
+        <v>0.07871567645697898</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -6723,19 +6723,19 @@
         <v>28280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15079</v>
+        <v>16665</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47038</v>
+        <v>45414</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03671234668057492</v>
+        <v>0.03671234668057491</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01957568369354539</v>
+        <v>0.02163480855695025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06106399207618007</v>
+        <v>0.0589563507254143</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>394104</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>381065</v>
+        <v>380918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>402729</v>
+        <v>401850</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9664306508977237</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9344574971820135</v>
+        <v>0.9340965884940498</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9875819182833959</v>
+        <v>0.9854270940589157</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -6773,19 +6773,19 @@
         <v>347922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>334437</v>
+        <v>333977</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356018</v>
+        <v>355876</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.95975206636812</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9225538057216478</v>
+        <v>0.9212843235430214</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9820851961451444</v>
+        <v>0.98169364044246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -6794,19 +6794,19 @@
         <v>742025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>723267</v>
+        <v>724891</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>755226</v>
+        <v>753640</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9632876533194252</v>
+        <v>0.963287653319425</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9389360079238201</v>
+        <v>0.9410436492745857</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9804243163064545</v>
+        <v>0.9783651914430498</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>23884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14497</v>
+        <v>13851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39615</v>
+        <v>38087</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05008226449669576</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03039842903368996</v>
+        <v>0.02904497588310175</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08306984433068203</v>
+        <v>0.07986627708820059</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -6919,19 +6919,19 @@
         <v>33764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22719</v>
+        <v>23407</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47037</v>
+        <v>48609</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06738216290518695</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04533989064215043</v>
+        <v>0.04671340619567362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09387011529337122</v>
+        <v>0.09700879567230122</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -6940,19 +6940,19 @@
         <v>57648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44164</v>
+        <v>44212</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>76066</v>
+        <v>77116</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05894619366826933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04515841676764713</v>
+        <v>0.04520821462684705</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07777972486973218</v>
+        <v>0.07885294171439121</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>453006</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>437275</v>
+        <v>438803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>462393</v>
+        <v>463039</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9499177355033043</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.916930155669318</v>
+        <v>0.9201337229117996</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9696015709663101</v>
+        <v>0.9709550241168985</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>430</v>
@@ -6990,19 +6990,19 @@
         <v>467319</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>454046</v>
+        <v>452474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>478364</v>
+        <v>477676</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9326178370948129</v>
+        <v>0.9326178370948131</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9061298847066288</v>
+        <v>0.9029912043276985</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9546601093578496</v>
+        <v>0.9532865938043261</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>716</v>
@@ -7011,19 +7011,19 @@
         <v>920325</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>901907</v>
+        <v>900857</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>933809</v>
+        <v>933761</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9410538063317306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9222202751302676</v>
+        <v>0.9211470582856089</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9548415832323527</v>
+        <v>0.9547917853731532</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>23320</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14939</v>
+        <v>14967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33763</v>
+        <v>34864</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03756161624831238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02406282613012981</v>
+        <v>0.02410811386313599</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05438222949807514</v>
+        <v>0.05615660892091376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -7136,19 +7136,19 @@
         <v>30654</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22711</v>
+        <v>22494</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>40581</v>
+        <v>41216</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0492711807467098</v>
+        <v>0.04927118074670979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03650543061605426</v>
+        <v>0.0361562828604677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06522815047541021</v>
+        <v>0.06624822796962225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -7157,19 +7157,19 @@
         <v>53973</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41756</v>
+        <v>42097</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>70183</v>
+        <v>70203</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04342253331820815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03359365240559054</v>
+        <v>0.03386773861489712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05646366184170819</v>
+        <v>0.05648006276755694</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>597517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>587074</v>
+        <v>585973</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>605898</v>
+        <v>605870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9624383837516877</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9456177705019251</v>
+        <v>0.9438433910790861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9759371738698703</v>
+        <v>0.9758918861368641</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>805</v>
@@ -7207,19 +7207,19 @@
         <v>591485</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>581558</v>
+        <v>580923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>599428</v>
+        <v>599645</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9507288192532902</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9347718495245896</v>
+        <v>0.9337517720303777</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9634945693839458</v>
+        <v>0.9638437171395323</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1331</v>
@@ -7228,19 +7228,19 @@
         <v>1189003</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1172793</v>
+        <v>1172773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1201220</v>
+        <v>1200879</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.956577466681792</v>
+        <v>0.9565774666817919</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9435363381582919</v>
+        <v>0.943519937232443</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9664063475944094</v>
+        <v>0.9661322613851029</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>33548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22565</v>
+        <v>22789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48381</v>
+        <v>47212</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04788368229446709</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03220744056993873</v>
+        <v>0.03252678548766533</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06905415454844178</v>
+        <v>0.06738622640183069</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -7353,19 +7353,19 @@
         <v>47507</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37401</v>
+        <v>36961</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>59873</v>
+        <v>59231</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06447003583945363</v>
+        <v>0.06447003583945361</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05075535589158196</v>
+        <v>0.05015813612373227</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08125097333294801</v>
+        <v>0.08038004254891218</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>98</v>
@@ -7374,19 +7374,19 @@
         <v>81055</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>65892</v>
+        <v>65618</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>99143</v>
+        <v>99509</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05638610169506039</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04583783262742934</v>
+        <v>0.0456469434301852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06896916368149311</v>
+        <v>0.06922359057521027</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>667069</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>652236</v>
+        <v>653405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>678052</v>
+        <v>677828</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9521163177055332</v>
+        <v>0.952116317705533</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9309458454515583</v>
+        <v>0.9326137735981694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9677925594300615</v>
+        <v>0.9674732145123353</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1072</v>
@@ -7424,19 +7424,19 @@
         <v>689379</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>677013</v>
+        <v>677655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>699485</v>
+        <v>699925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9355299641605465</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9187490266670516</v>
+        <v>0.9196199574510876</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.949244644108418</v>
+        <v>0.9498418638762676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1708</v>
@@ -7445,19 +7445,19 @@
         <v>1356449</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1338361</v>
+        <v>1337995</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1371612</v>
+        <v>1371886</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9436138983049395</v>
+        <v>0.9436138983049396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9310308363185069</v>
+        <v>0.9307764094247895</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9541621673725708</v>
+        <v>0.9543530565698147</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>10644</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5836</v>
+        <v>5868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18502</v>
+        <v>18188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01749609625988403</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009593515226057519</v>
+        <v>0.00964481251938934</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03041292722060784</v>
+        <v>0.0298971298091321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>41</v>
@@ -7570,19 +7570,19 @@
         <v>26329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19339</v>
+        <v>19908</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34252</v>
+        <v>34884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04334406528176495</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03183566716794892</v>
+        <v>0.03277307977434599</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05638626305376303</v>
+        <v>0.05742755667065932</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -7591,19 +7591,19 @@
         <v>36973</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27654</v>
+        <v>28248</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>46968</v>
+        <v>47525</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03041039505050133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02274579014536864</v>
+        <v>0.02323380756381257</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03863129138933168</v>
+        <v>0.03908900595729663</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>597715</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>589857</v>
+        <v>590171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>602523</v>
+        <v>602491</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9825039037401161</v>
+        <v>0.982503903740116</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9695870727793924</v>
+        <v>0.9701028701908668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9904064847739428</v>
+        <v>0.9903551874806106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>959</v>
@@ -7641,19 +7641,19 @@
         <v>581119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>573196</v>
+        <v>572564</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>588109</v>
+        <v>587540</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9566559347182348</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9436137369462368</v>
+        <v>0.9425724433293413</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9681643328320511</v>
+        <v>0.9672269202256542</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1609</v>
@@ -7662,19 +7662,19 @@
         <v>1178834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1168839</v>
+        <v>1168282</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1188153</v>
+        <v>1187559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9695896049494986</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9613687086106681</v>
+        <v>0.9609109940427034</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9772542098546314</v>
+        <v>0.976766192436187</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>7356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3782</v>
+        <v>3563</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13405</v>
+        <v>13305</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01807082206585406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009290765005192547</v>
+        <v>0.00875372264141243</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03292970293681451</v>
+        <v>0.03268443166403438</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -7787,19 +7787,19 @@
         <v>18584</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12818</v>
+        <v>13405</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25409</v>
+        <v>26434</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04231637600732983</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02918653589878104</v>
+        <v>0.03052341776284728</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05785749786548868</v>
+        <v>0.06019074668262432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -7808,19 +7808,19 @@
         <v>25940</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18626</v>
+        <v>18460</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>34350</v>
+        <v>34399</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03065324908660302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.022010331395492</v>
+        <v>0.02181444092281826</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0405915291100598</v>
+        <v>0.04064878103823644</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>399724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>393675</v>
+        <v>393775</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>403298</v>
+        <v>403517</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.981929177934146</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9670702970631857</v>
+        <v>0.9673155683359651</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9907092349948075</v>
+        <v>0.9912462773585874</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>794</v>
@@ -7858,19 +7858,19 @@
         <v>420582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>413757</v>
+        <v>412732</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>426348</v>
+        <v>425761</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9576836239926704</v>
+        <v>0.9576836239926703</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9421425021345112</v>
+        <v>0.9398092533173755</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9708134641012188</v>
+        <v>0.9694765822371526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1354</v>
@@ -7879,19 +7879,19 @@
         <v>820306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>811896</v>
+        <v>811847</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>827620</v>
+        <v>827786</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9693467509133968</v>
+        <v>0.9693467509133971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9594084708899402</v>
+        <v>0.9593512189617637</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9779896686045078</v>
+        <v>0.9781855590771817</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>7104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3601</v>
+        <v>3537</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12612</v>
+        <v>12371</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02293833712030714</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0116284895979031</v>
+        <v>0.01142021655490729</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04072275982447849</v>
+        <v>0.03994447212111732</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>23</v>
@@ -8004,19 +8004,19 @@
         <v>13493</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8932</v>
+        <v>8513</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20830</v>
+        <v>19742</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02913809870789865</v>
+        <v>0.02913809870789864</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01928856212766724</v>
+        <v>0.01838318269448404</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04498117689695052</v>
+        <v>0.04263116642046975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -8025,19 +8025,19 @@
         <v>20597</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>14341</v>
+        <v>13793</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28011</v>
+        <v>28227</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02665345589871525</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0185580765093654</v>
+        <v>0.0178484061696173</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03624744032077695</v>
+        <v>0.03652622046069191</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>302599</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>297091</v>
+        <v>297332</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>306102</v>
+        <v>306166</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9770616628796931</v>
+        <v>0.9770616628796929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9592772401755205</v>
+        <v>0.9600555278788846</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9883715104020968</v>
+        <v>0.9885797834450928</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>855</v>
@@ -8075,19 +8075,19 @@
         <v>449586</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>442249</v>
+        <v>443337</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>454147</v>
+        <v>454566</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9708619012921015</v>
+        <v>0.9708619012921014</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9550188231030495</v>
+        <v>0.9573688335795305</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9807114378723326</v>
+        <v>0.9816168173055161</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1302</v>
@@ -8096,19 +8096,19 @@
         <v>752185</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>744771</v>
+        <v>744555</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>758441</v>
+        <v>758989</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9733465441012847</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.963752559679223</v>
+        <v>0.9634737795393081</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9814419234906346</v>
+        <v>0.9821515938303825</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>119545</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03385320093119155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>245</v>
@@ -8221,19 +8221,19 @@
         <v>184921</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>349</v>
@@ -8242,19 +8242,19 @@
         <v>304467</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3411735</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3383935</v>
+        <v>3387222</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3432336</v>
+        <v>3435829</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9661467990688085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9582743931809182</v>
+        <v>0.9592052765575979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9719806964265899</v>
+        <v>0.9729697230452659</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5114</v>
@@ -8292,19 +8292,19 @@
         <v>3547392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3519447</v>
+        <v>3518346</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3571524</v>
+        <v>3569271</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9504539297531943</v>
+        <v>0.9504539297531942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9429668229247692</v>
+        <v>0.9426717543729818</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9569198608467132</v>
+        <v>0.9563162303588141</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8384</v>
@@ -8313,19 +8313,19 @@
         <v>6959126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6920280</v>
+        <v>6927242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6988815</v>
+        <v>6992091</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9580831993367245</v>
+        <v>0.9580831993367244</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9527351247585925</v>
+        <v>0.9536935557184365</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9621704629271345</v>
+        <v>0.9626214792139767</v>
       </c>
     </row>
     <row r="27">
